--- a/data/stats_priceprofiles.xlsx
+++ b/data/stats_priceprofiles.xlsx
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>53</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>68</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>69</v>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>56</v>
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>54</v>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>39</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>49</v>
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>56</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>53</v>
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>71</v>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>68</v>
